--- a/cleaned data/Med Ass't and Respiratory Fall22.xlsx
+++ b/cleaned data/Med Ass't and Respiratory Fall22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
   <si>
     <t>Block</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>OFF CAMPUS</t>
+  </si>
+  <si>
+    <t>ONLINE</t>
   </si>
   <si>
     <t>F</t>
@@ -639,22 +645,22 @@
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J2">
         <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -677,22 +683,22 @@
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3">
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -715,22 +721,22 @@
         <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J4">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -756,22 +762,22 @@
         <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J5">
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -794,22 +800,22 @@
         <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J6">
         <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -831,11 +837,23 @@
       <c r="F7" t="s">
         <v>42</v>
       </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
       <c r="J7">
         <v>7</v>
       </c>
+      <c r="K7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -857,8 +875,20 @@
       <c r="F8" t="s">
         <v>42</v>
       </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
       <c r="J8">
         <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -880,8 +910,20 @@
       <c r="F9" t="s">
         <v>43</v>
       </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
       <c r="J9">
         <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -903,8 +945,20 @@
       <c r="F10" t="s">
         <v>44</v>
       </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
       <c r="J10">
         <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -924,25 +978,25 @@
         <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J11">
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
